--- a/hiqu/HR/Performance Evaluation/October 2024/QA/Hamza Nouman.xlsx
+++ b/hiqu/HR/Performance Evaluation/October 2024/QA/Hamza Nouman.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\September 2024\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\October 2024\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101D59E3-75B3-4F6F-BE0E-B25C15D9E58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB4206C-33BB-44B0-8214-3F0DD197492E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="113">
   <si>
     <t>Employee Name</t>
   </si>
@@ -349,17 +349,48 @@
   </si>
   <si>
     <t>Period: September 2024 - June-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP WORKFLOW                     </t>
+  </si>
+  <si>
+    <t>Bug Fixing</t>
+  </si>
+  <si>
+    <t>Cient UAT Upgrad</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Cient UAT Upgrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR-0013                         </t>
+  </si>
+  <si>
+    <t>Admin &amp; Misc.</t>
+  </si>
+  <si>
+    <t>Internal Meeting</t>
+  </si>
+  <si>
+    <t>Requirement Writing</t>
+  </si>
+  <si>
+    <t>Internal Meetings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +488,12 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -646,7 +683,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -774,6 +811,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2848,18 +2930,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="73"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
     </row>
@@ -2867,11 +2949,11 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -2879,11 +2961,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -2891,11 +2973,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -2903,11 +2985,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -2915,11 +2997,11 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -2927,12 +3009,12 @@
       <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="71">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.273972602739726</v>
-      </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
+        <v>1.3041095890410959</v>
+      </c>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
@@ -2940,11 +3022,11 @@
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
@@ -3246,18 +3328,18 @@
       <c r="M3" s="39"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="62" t="s">
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
@@ -3289,17 +3371,17 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
@@ -3422,17 +3504,17 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="61"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
@@ -3540,17 +3622,17 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="76"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="38" t="s">
@@ -3673,17 +3755,17 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
@@ -4121,10 +4203,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B9DD28-2AA3-40BE-9B44-742BA0E60626}">
-  <dimension ref="B2:V19"/>
+  <dimension ref="B2:V27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4139,7 +4221,7 @@
     <col min="11" max="11" width="2.28515625" style="5" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="61" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="1.7109375" style="5" customWidth="1"/>
     <col min="16" max="16" width="9.7109375" style="37" customWidth="1"/>
     <col min="17" max="17" width="2.28515625" style="5" customWidth="1"/>
@@ -4149,79 +4231,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -4230,34 +4312,34 @@
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68" t="s">
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="70" t="s">
+      <c r="L6" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="72"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
       <c r="P6" s="34" t="s">
         <v>9</v>
       </c>
       <c r="R6" s="13"/>
-      <c r="S6" s="70" t="s">
+      <c r="S6" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="72"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="87"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -4277,15 +4359,15 @@
       <c r="H7" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
       <c r="L7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="56" t="s">
         <v>13</v>
       </c>
       <c r="P7" s="35" t="s">
@@ -4321,7 +4403,7 @@
       <c r="J8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="N8" s="57"/>
       <c r="P8" s="36"/>
       <c r="R8" s="7"/>
       <c r="S8" s="2"/>
@@ -4335,13 +4417,11 @@
         <v>84</v>
       </c>
       <c r="D9" s="45"/>
-      <c r="E9" s="45">
-        <v>25</v>
-      </c>
+      <c r="E9" s="45"/>
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
-      <c r="H9" s="45">
-        <v>77</v>
+      <c r="H9" s="55">
+        <v>42</v>
       </c>
       <c r="I9" s="48"/>
       <c r="J9" s="48"/>
@@ -4350,16 +4430,17 @@
         <v>8</v>
       </c>
       <c r="M9" s="48">
-        <v>66.5</v>
-      </c>
-      <c r="N9" s="15">
-        <f t="shared" ref="N9:N10" si="0">IF(L9=0,0,(M9-L9)/L9)</f>
-        <v>7.3125</v>
+        <f>35+10</f>
+        <v>45</v>
+      </c>
+      <c r="N9" s="69">
+        <f>L9-M9</f>
+        <v>-37</v>
       </c>
       <c r="O9" s="51"/>
       <c r="P9" s="52">
         <f>D9+E9+F9+G9+H9+I9+J9+M9</f>
-        <v>168.5</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="49"/>
       <c r="R9" s="53"/>
@@ -4397,16 +4478,17 @@
         <v>40</v>
       </c>
       <c r="M10" s="2">
-        <v>69.5</v>
-      </c>
-      <c r="N10" s="15">
-        <f t="shared" si="0"/>
-        <v>0.73750000000000004</v>
+        <f>10+42.5</f>
+        <v>52.5</v>
+      </c>
+      <c r="N10" s="58">
+        <f>L10-M10</f>
+        <v>-12.5</v>
       </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="36">
+      <c r="P10" s="52">
         <f>D10+E10+F10+G10+H10+I10+J10+M10</f>
-        <v>85.5</v>
+        <v>68.5</v>
       </c>
       <c r="R10" s="15"/>
       <c r="S10" s="2"/>
@@ -4415,22 +4497,27 @@
       <c r="V10" s="7"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="30">
+        <v>1</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="7"/>
+      <c r="N11" s="58"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="36"/>
+      <c r="P11" s="36">
+        <f>D11+E11+F11+G11+H11+I11+J11+M11</f>
+        <v>1</v>
+      </c>
       <c r="R11" s="15"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -4438,10 +4525,10 @@
       <c r="V11" s="7"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="B12" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="32"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -4450,54 +4537,56 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2">
-        <v>50</v>
-      </c>
-      <c r="N12" s="7"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="59"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="36">
-        <f>D12+E12+F12+G12+H12+I12+J12+M12</f>
-        <v>50</v>
-      </c>
+      <c r="P12" s="36"/>
       <c r="R12" s="15"/>
-      <c r="S12" s="2">
-        <v>1</v>
-      </c>
+      <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="7">
-        <f>SUM(S12:U12)</f>
-        <v>1</v>
-      </c>
+      <c r="V12" s="7"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="E13" s="30">
+        <v>8</v>
+      </c>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="7"/>
+      <c r="M13" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="N13" s="59"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="36"/>
+      <c r="P13" s="36">
+        <f>D13+E13+F13+G13+H13+I13+J13+M13</f>
+        <v>58.5</v>
+      </c>
       <c r="R13" s="15"/>
-      <c r="S13" s="2"/>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="7"/>
+      <c r="V13" s="7">
+        <f>SUM(S13:U13)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="B14" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="32"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -4506,27 +4595,21 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="59"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="36">
-        <f>D14+E14+F14+G14+H14+I14+J14+M14</f>
-        <v>1</v>
-      </c>
+      <c r="P14" s="36"/>
       <c r="R14" s="15"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="7">
-        <f>SUM(S14:U14)</f>
-        <v>0</v>
-      </c>
+      <c r="V14" s="7"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
@@ -4535,10 +4618,15 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="7"/>
+      <c r="M15" s="2">
+        <v>4</v>
+      </c>
+      <c r="N15" s="59"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="36"/>
+      <c r="P15" s="36">
+        <f>D15+E15+F15+G15+H15+I15+J15+M15</f>
+        <v>4</v>
+      </c>
       <c r="R15" s="15"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -4547,95 +4635,303 @@
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="C16" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="15"/>
-      <c r="P16" s="36"/>
-      <c r="R16" s="7"/>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="59"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="36">
+        <f>D16+E16+F16+G16+H16+I16+J16+M16</f>
+        <v>1</v>
+      </c>
+      <c r="R16" s="15"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="7"/>
-    </row>
-    <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="s">
+      <c r="V16" s="7">
+        <f>SUM(S16:U16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="36"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2">
+        <v>13</v>
+      </c>
+      <c r="N18" s="59"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="36">
+        <f>D18+E18+F18+G18+H18+I18+J18+M18</f>
+        <v>13</v>
+      </c>
+      <c r="R18" s="15"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="7"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30">
+        <v>22</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="36">
+        <f>D19+E19+F19+G19+H19+I19+J19+M19</f>
+        <v>22</v>
+      </c>
+      <c r="R19" s="15"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="7"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="36"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="7"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30">
+        <v>4</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="36"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="7"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30">
+        <v>28</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="36"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="7"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="2">
+        <v>14</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="36"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="7"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="58"/>
+      <c r="P24" s="36"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="7"/>
+    </row>
+    <row r="26" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17">
-        <f t="shared" ref="D18:J18" si="1">SUM(D8:D16)</f>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17">
+        <f t="shared" ref="D26:J26" si="0">SUM(D8:D24)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="17">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="F18" s="17">
-        <f t="shared" si="1"/>
+      <c r="E26" s="17">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="17">
-        <f t="shared" si="1"/>
+      <c r="H26" s="17">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J26" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="17">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="I18" s="17">
-        <f t="shared" si="1"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17">
+        <f>SUM(L8:L25)</f>
+        <v>48</v>
+      </c>
+      <c r="M26" s="17">
+        <f>SUM(M8:M25)</f>
+        <v>166</v>
+      </c>
+      <c r="N26" s="60">
+        <f t="shared" ref="N26" si="1">IF(L26=0,0,(M26-L26)/L26)</f>
+        <v>2.4583333333333335</v>
+      </c>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17">
+        <f>SUM(P8:P25)</f>
+        <v>255</v>
+      </c>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17">
+        <f>SUM(S8:S25)</f>
+        <v>1</v>
+      </c>
+      <c r="T26" s="17">
+        <f>SUM(T8:T25)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="17">
-        <f t="shared" si="1"/>
+      <c r="U26" s="17">
+        <f>SUM(U8:U25)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17">
-        <f>SUM(L8:L17)</f>
-        <v>48</v>
-      </c>
-      <c r="M18" s="17">
-        <f>SUM(M8:M17)</f>
-        <v>187</v>
-      </c>
-      <c r="N18" s="18">
-        <f t="shared" ref="N18" si="2">IF(L18=0,0,(M18-L18)/L18)</f>
-        <v>2.8958333333333335</v>
-      </c>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17">
-        <f>SUM(P8:P17)</f>
-        <v>305</v>
-      </c>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17">
-        <f>SUM(S8:S17)</f>
+      <c r="V26" s="17">
+        <f>SUM(V8:V25)</f>
         <v>1</v>
       </c>
-      <c r="T18" s="17">
-        <f>SUM(T8:T17)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="17">
-        <f>SUM(U8:U17)</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="17">
-        <f>SUM(V8:V17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="27" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B2:V2"/>
@@ -4647,7 +4943,7 @@
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="S6:V6"/>
   </mergeCells>
-  <conditionalFormatting sqref="S9:S15">
+  <conditionalFormatting sqref="S9:S23">
     <cfRule type="expression" priority="1">
       <formula>S9/$V9</formula>
     </cfRule>
@@ -4658,10 +4954,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
-  <dimension ref="B2:V18"/>
+  <dimension ref="B2:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4686,79 +4982,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -4767,34 +5063,34 @@
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68" t="s">
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="70" t="s">
+      <c r="L6" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="72"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
       <c r="P6" s="34" t="s">
         <v>9</v>
       </c>
       <c r="R6" s="13"/>
-      <c r="S6" s="70" t="s">
+      <c r="S6" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="72"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="87"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
@@ -4814,8 +5110,8 @@
       <c r="H7" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
       <c r="L7" s="10" t="s">
         <v>14</v>
       </c>
@@ -4868,17 +5164,15 @@
     </row>
     <row r="9" spans="2:22" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="46"/>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="62" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="45"/>
-      <c r="E9" s="45">
-        <v>10</v>
-      </c>
+      <c r="E9" s="45"/>
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
-      <c r="H9" s="45">
-        <v>70</v>
+      <c r="H9" s="55">
+        <v>39</v>
       </c>
       <c r="I9" s="48"/>
       <c r="J9" s="48"/>
@@ -4887,9 +5181,9 @@
       <c r="M9" s="48"/>
       <c r="N9" s="50"/>
       <c r="O9" s="51"/>
-      <c r="P9" s="52">
+      <c r="P9" s="63">
         <f>D9+E9+F9+G9+H9+I9+J9+M9</f>
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="49"/>
       <c r="R9" s="53"/>
@@ -4907,545 +5201,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
+    <row r="10" spans="2:22" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="46"/>
+      <c r="C10" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48">
+        <v>1</v>
+      </c>
+      <c r="K10" s="49"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="50"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="36"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30">
-        <v>8</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2">
-        <v>50.5</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="36">
-        <f>D11+E11+F11+G11+H11+I11+J11+M11</f>
-        <v>58.5</v>
-      </c>
-      <c r="R11" s="15"/>
-      <c r="S11" s="2">
-        <v>1</v>
-      </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="7">
-        <f>SUM(S11:U11)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="36"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="36">
-        <f>D13+E13+F13+G13+H13+I13+J13+M13</f>
-        <v>1</v>
-      </c>
-      <c r="R13" s="15"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="7">
-        <f>SUM(S13:U13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="36"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="7"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="15"/>
-      <c r="P15" s="36"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="7"/>
-    </row>
-    <row r="17" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17">
-        <f>SUM(D8:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="17">
-        <f t="shared" ref="E17:J17" si="0">SUM(E8:E15)</f>
-        <v>18</v>
-      </c>
-      <c r="F17" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="17">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="I17" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17">
-        <f>SUM(L8:L16)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="17">
-        <f>SUM(M8:M16)</f>
-        <v>51.5</v>
-      </c>
-      <c r="N17" s="18">
-        <f t="shared" ref="N17" si="1">IF(L17=0,0,(M17-L17)/L17)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17">
-        <f>SUM(P8:P16)</f>
-        <v>139.5</v>
-      </c>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17">
-        <f>SUM(S8:S16)</f>
-        <v>1</v>
-      </c>
-      <c r="T17" s="17">
-        <f>SUM(T8:T16)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="17">
-        <f>SUM(U8:U16)</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="17">
-        <f>SUM(V8:V16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B3:V3"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B4:V4"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-  </mergeCells>
-  <conditionalFormatting sqref="S9:S14">
-    <cfRule type="expression" priority="3">
-      <formula>S9/$V9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2E492B-594A-42A4-B532-C17A291B1C78}">
-  <dimension ref="B2:V18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:N10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="2.28515625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="37" customWidth="1"/>
-    <col min="17" max="17" width="2.28515625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" style="5" customWidth="1"/>
-    <col min="19" max="21" width="9.140625" style="5"/>
-    <col min="22" max="22" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-    </row>
-    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="71"/>
-      <c r="N6" s="72"/>
-      <c r="P6" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="72"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="L7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="P8" s="36"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="33"/>
-      <c r="C9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30">
-        <v>15</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30">
-        <v>7</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="L9" s="2">
-        <v>8</v>
-      </c>
-      <c r="M9" s="2">
-        <v>66.5</v>
-      </c>
-      <c r="N9" s="15">
-        <f t="shared" ref="N9:N10" si="0">IF(L9=0,0,(M9-L9)/L9)</f>
-        <v>7.3125</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="36">
-        <f>D9+E9+F9+G9+H9+I9+J9+M9</f>
-        <v>88.5</v>
-      </c>
-      <c r="R9" s="15"/>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="7">
-        <f>SUM(S9:U9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30">
-        <v>2</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30">
-        <v>14</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="L10" s="2">
-        <v>40</v>
-      </c>
-      <c r="M10" s="2">
-        <v>69.5</v>
-      </c>
-      <c r="N10" s="15">
-        <f t="shared" si="0"/>
-        <v>0.73750000000000004</v>
-      </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="36">
-        <f>D10+E10+F10+G10+H10+I10+J10+M10</f>
-        <v>85.5</v>
-      </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
@@ -5463,34 +5249,47 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" s="7">
-        <f>SUM(S11:U11)</f>
-        <v>0</v>
-      </c>
+      <c r="V11" s="7"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="C12" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="E12" s="30">
+        <v>8</v>
+      </c>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2">
+        <v>50.5</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="36"/>
+      <c r="P12" s="36">
+        <f>D12+E12+F12+G12+H12+I12+J12+M12</f>
+        <v>58.5</v>
+      </c>
       <c r="R12" s="15"/>
-      <c r="S12" s="2"/>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="7"/>
+      <c r="V12" s="7">
+        <f>SUM(S12:U12)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+      <c r="B13" s="32" t="s">
+        <v>86</v>
+      </c>
       <c r="C13" s="32"/>
       <c r="D13" s="30"/>
       <c r="E13" s="30"/>
@@ -5508,14 +5307,13 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="7">
-        <f>SUM(S13:U13)</f>
-        <v>0</v>
-      </c>
+      <c r="V13" s="7"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="28"/>
+      <c r="C14" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -5524,10 +5322,791 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="36"/>
+      <c r="P14" s="36">
+        <f>D14+E14+F14+G14+H14+I14+J14+M14</f>
+        <v>1</v>
+      </c>
+      <c r="R14" s="15"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="7">
+        <f>SUM(S14:U14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="36"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2">
+        <v>13</v>
+      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="36"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2">
+        <v>4</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="36"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="36"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="7"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30">
+        <v>4</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="36"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="7"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30">
+        <v>6</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="36"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="7"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="2">
+        <v>14</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="36"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="7"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="36"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="7"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="36"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="7"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="36"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="7"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="36"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="7"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="15"/>
+      <c r="P26" s="36"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="7"/>
+    </row>
+    <row r="28" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17">
+        <f>SUM(D8:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" ref="E28:J28" si="0">SUM(E8:E26)</f>
+        <v>18</v>
+      </c>
+      <c r="F28" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="17">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I28" s="17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J28" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17">
+        <f>SUM(L8:L27)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="17">
+        <f>SUM(M8:M27)</f>
+        <v>68.5</v>
+      </c>
+      <c r="N28" s="18">
+        <f t="shared" ref="N28" si="1">IF(L28=0,0,(M28-L28)/L28)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17">
+        <f>SUM(P8:P27)</f>
+        <v>98.5</v>
+      </c>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17">
+        <f>SUM(S8:S27)</f>
+        <v>1</v>
+      </c>
+      <c r="T28" s="17">
+        <f>SUM(T8:T27)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="17">
+        <f>SUM(U8:U27)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="17">
+        <f>SUM(V8:V27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B4:V4"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="S9:S25">
+    <cfRule type="expression" priority="3">
+      <formula>S9/$V9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2E492B-594A-42A4-B532-C17A291B1C78}">
+  <dimension ref="B2:V18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="68" customWidth="1"/>
+    <col min="17" max="17" width="2.28515625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" style="5" customWidth="1"/>
+    <col min="19" max="21" width="9.140625" style="5"/>
+    <col min="22" max="22" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+    </row>
+    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87"/>
+      <c r="P6" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="13"/>
+      <c r="S6" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="87"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="L7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="57"/>
+      <c r="P8" s="66"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30">
+        <v>15</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="L9" s="2">
+        <v>8</v>
+      </c>
+      <c r="M9" s="2">
+        <v>66.5</v>
+      </c>
+      <c r="N9" s="69">
+        <f>L9-M9</f>
+        <v>-58.5</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="66">
+        <f t="shared" ref="P9:P14" si="0">D9+E9+F9+G9+H9+I9+J9+M9</f>
+        <v>88.5</v>
+      </c>
+      <c r="R9" s="15"/>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <f>SUM(S9:U9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30">
+        <v>2</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="L10" s="2">
+        <v>40</v>
+      </c>
+      <c r="M10" s="2">
+        <v>69.5</v>
+      </c>
+      <c r="N10" s="69">
+        <f>L10-M10</f>
+        <v>-29.5</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="66">
+        <f t="shared" si="0"/>
+        <v>85.5</v>
+      </c>
+      <c r="R10" s="15"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="15"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="7">
+        <f>SUM(S11:U11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
+        <v>18</v>
+      </c>
+      <c r="N12" s="59"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="66">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="R12" s="15"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="15"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="7">
+        <f>SUM(S13:U13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30">
+        <v>22</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="66">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="R14" s="15"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -5546,8 +6125,8 @@
       <c r="J15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="15"/>
-      <c r="P15" s="36"/>
+      <c r="N15" s="58"/>
+      <c r="P15" s="66"/>
       <c r="R15" s="7"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -5565,7 +6144,7 @@
       </c>
       <c r="E17" s="17">
         <f t="shared" ref="E17:J17" si="1">SUM(E8:E15)</f>
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F17" s="17">
         <f t="shared" si="1"/>
@@ -5594,16 +6173,16 @@
       </c>
       <c r="M17" s="17">
         <f>SUM(M8:M16)</f>
-        <v>136</v>
-      </c>
-      <c r="N17" s="18">
+        <v>154</v>
+      </c>
+      <c r="N17" s="60">
         <f t="shared" ref="N17" si="2">IF(L17=0,0,(M17-L17)/L17)</f>
-        <v>1.8333333333333333</v>
+        <v>2.2083333333333335</v>
       </c>
       <c r="O17" s="17"/>
-      <c r="P17" s="17">
+      <c r="P17" s="67">
         <f>SUM(P8:P16)</f>
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
